--- a/team_specific_matrix/Iona_B.xlsx
+++ b/team_specific_matrix/Iona_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1512605042016807</v>
+        <v>0.1614035087719298</v>
       </c>
       <c r="C2">
-        <v>0.6302521008403361</v>
+        <v>0.6175438596491228</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01260504201680672</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09663865546218488</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1092436974789916</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0124223602484472</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C3">
-        <v>0.02484472049689441</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05590062111801242</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7080745341614907</v>
+        <v>0.7287234042553191</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1987577639751553</v>
+        <v>0.1861702127659574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08695652173913043</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5652173913043478</v>
+        <v>0.6</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3478260869565217</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08376963350785341</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01047120418848168</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06806282722513089</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2094240837696335</v>
+        <v>0.2139737991266376</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01570680628272251</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1413612565445026</v>
+        <v>0.1266375545851528</v>
       </c>
       <c r="R6">
-        <v>0.1047120418848168</v>
+        <v>0.09170305676855896</v>
       </c>
       <c r="S6">
-        <v>0.3664921465968586</v>
+        <v>0.3755458515283843</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1451612903225807</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02419354838709677</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0564516129032258</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1048387096774194</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01612903225806452</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1451612903225807</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="R7">
-        <v>0.1129032258064516</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="S7">
-        <v>0.3951612903225806</v>
+        <v>0.4087591240875912</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1134969325153374</v>
+        <v>0.1208226221079692</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02147239263803681</v>
+        <v>0.02313624678663239</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002570694087403599</v>
       </c>
       <c r="F8">
-        <v>0.07975460122699386</v>
+        <v>0.07712082262210797</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1134969325153374</v>
+        <v>0.1053984575835476</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006134969325153374</v>
+        <v>0.005141388174807198</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1687116564417178</v>
+        <v>0.1748071979434447</v>
       </c>
       <c r="R8">
-        <v>0.07975460122699386</v>
+        <v>0.07197943444730077</v>
       </c>
       <c r="S8">
-        <v>0.4171779141104294</v>
+        <v>0.4190231362467866</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1081081081081081</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01351351351351351</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1418918918918919</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0945945945945946</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01351351351351351</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1959459459459459</v>
+        <v>0.1912568306010929</v>
       </c>
       <c r="R9">
-        <v>0.06756756756756757</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="S9">
-        <v>0.3648648648648649</v>
+        <v>0.3497267759562842</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.121380846325167</v>
+        <v>0.1173752310536044</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01447661469933185</v>
+        <v>0.01478743068391867</v>
       </c>
       <c r="E10">
-        <v>0.00111358574610245</v>
+        <v>0.0009242144177449168</v>
       </c>
       <c r="F10">
-        <v>0.07683741648106904</v>
+        <v>0.07578558225508318</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1191536748329621</v>
+        <v>0.1146025878003697</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0133630289532294</v>
+        <v>0.01293900184842884</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1759465478841871</v>
+        <v>0.1829944547134935</v>
       </c>
       <c r="R10">
-        <v>0.08908685968819599</v>
+        <v>0.08964879852125693</v>
       </c>
       <c r="S10">
-        <v>0.388641425389755</v>
+        <v>0.3909426987060998</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.146551724137931</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09051724137931035</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="K11">
-        <v>0.2112068965517241</v>
+        <v>0.2037735849056604</v>
       </c>
       <c r="L11">
-        <v>0.5172413793103449</v>
+        <v>0.5320754716981132</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03448275862068965</v>
+        <v>0.03773584905660377</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6141732283464567</v>
+        <v>0.5906040268456376</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2677165354330709</v>
+        <v>0.2751677852348993</v>
       </c>
       <c r="K12">
-        <v>0.03149606299212598</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="L12">
-        <v>0.02362204724409449</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06299212598425197</v>
+        <v>0.08053691275167785</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6296296296296297</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2962962962962963</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07407407407407407</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02127659574468085</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1205673758865248</v>
+        <v>0.115606936416185</v>
       </c>
       <c r="I15">
-        <v>0.04964539007092199</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="J15">
-        <v>0.475177304964539</v>
+        <v>0.4682080924855491</v>
       </c>
       <c r="K15">
-        <v>0.1134751773049645</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01418439716312057</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0425531914893617</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1631205673758865</v>
+        <v>0.1849710982658959</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1468531468531468</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="I16">
-        <v>0.05594405594405594</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="J16">
-        <v>0.4125874125874126</v>
+        <v>0.4147727272727273</v>
       </c>
       <c r="K16">
-        <v>0.1678321678321678</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02797202797202797</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05594405594405594</v>
+        <v>0.05113636363636364</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1328671328671329</v>
+        <v>0.1306818181818182</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02826855123674912</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2367491166077738</v>
+        <v>0.235632183908046</v>
       </c>
       <c r="I17">
-        <v>0.1060070671378092</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="J17">
-        <v>0.3957597173144876</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K17">
-        <v>0.07067137809187279</v>
+        <v>0.06609195402298851</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007067137809187279</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04946996466431095</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1060070671378092</v>
+        <v>0.09770114942528736</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01333333333333333</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1866666666666667</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="I18">
-        <v>0.09333333333333334</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="J18">
-        <v>0.34</v>
+        <v>0.3542857142857143</v>
       </c>
       <c r="K18">
-        <v>0.14</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006666666666666667</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="N18">
-        <v>0.006666666666666667</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="O18">
-        <v>0.07333333333333333</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.14</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02010582010582011</v>
+        <v>0.02008733624454149</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2052910052910053</v>
+        <v>0.2043668122270742</v>
       </c>
       <c r="I19">
-        <v>0.09417989417989418</v>
+        <v>0.09082969432314411</v>
       </c>
       <c r="J19">
-        <v>0.3576719576719577</v>
+        <v>0.3537117903930131</v>
       </c>
       <c r="K19">
-        <v>0.1047619047619048</v>
+        <v>0.1039301310043668</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02222222222222222</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="N19">
-        <v>0.001058201058201058</v>
+        <v>0.0008733624454148472</v>
       </c>
       <c r="O19">
-        <v>0.06984126984126984</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1248677248677249</v>
+        <v>0.1301310043668122</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Iona_B.xlsx
+++ b/team_specific_matrix/Iona_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1614035087719298</v>
+        <v>0.16</v>
       </c>
       <c r="C2">
-        <v>0.6175438596491228</v>
+        <v>0.62</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01052631578947368</v>
+        <v>0.01</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1052631578947368</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1052631578947368</v>
+        <v>0.1033333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01063829787234043</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C3">
-        <v>0.02659574468085106</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04787234042553191</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7287234042553191</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1861702127659574</v>
+        <v>0.1767676767676768</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07860262008733625</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008733624454148471</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08296943231441048</v>
+        <v>0.09126984126984126</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2139737991266376</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02183406113537118</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1266375545851528</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="R6">
-        <v>0.09170305676855896</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S6">
-        <v>0.3755458515283843</v>
+        <v>0.373015873015873</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1313868613138686</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0218978102189781</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0583941605839416</v>
+        <v>0.06081081081081081</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0948905109489051</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0145985401459854</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1605839416058394</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="R7">
-        <v>0.1094890510948905</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="S7">
-        <v>0.4087591240875912</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1208226221079692</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02313624678663239</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="E8">
-        <v>0.002570694087403599</v>
+        <v>0.002403846153846154</v>
       </c>
       <c r="F8">
-        <v>0.07712082262210797</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1053984575835476</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.005141388174807198</v>
+        <v>0.007211538461538462</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1748071979434447</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="R8">
-        <v>0.07197943444730077</v>
+        <v>0.06971153846153846</v>
       </c>
       <c r="S8">
-        <v>0.4190231362467866</v>
+        <v>0.4134615384615384</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1256830601092896</v>
+        <v>0.12</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02185792349726776</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1311475409836066</v>
+        <v>0.125</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09836065573770492</v>
+        <v>0.095</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01092896174863388</v>
+        <v>0.01</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1912568306010929</v>
+        <v>0.19</v>
       </c>
       <c r="R9">
-        <v>0.07103825136612021</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S9">
-        <v>0.3497267759562842</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1173752310536044</v>
+        <v>0.1153519932145886</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01478743068391867</v>
+        <v>0.01611535199321459</v>
       </c>
       <c r="E10">
-        <v>0.0009242144177449168</v>
+        <v>0.0008481764206955047</v>
       </c>
       <c r="F10">
-        <v>0.07578558225508318</v>
+        <v>0.07718405428329092</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1146025878003697</v>
+        <v>0.1128074639525021</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01293900184842884</v>
+        <v>0.01357082273112807</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1829944547134935</v>
+        <v>0.1959287531806616</v>
       </c>
       <c r="R10">
-        <v>0.08964879852125693</v>
+        <v>0.08566581849024597</v>
       </c>
       <c r="S10">
-        <v>0.3909426987060998</v>
+        <v>0.3825275657336726</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1320754716981132</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09433962264150944</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="K11">
-        <v>0.2037735849056604</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L11">
-        <v>0.5320754716981132</v>
+        <v>0.5228070175438596</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03773584905660377</v>
+        <v>0.03859649122807018</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5906040268456376</v>
+        <v>0.5949367088607594</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2751677852348993</v>
+        <v>0.2721518987341772</v>
       </c>
       <c r="K12">
-        <v>0.02684563758389262</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="L12">
-        <v>0.02684563758389262</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.08053691275167785</v>
+        <v>0.0759493670886076</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02312138728323699</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.115606936416185</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="I15">
-        <v>0.05780346820809248</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="J15">
-        <v>0.4682080924855491</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="K15">
-        <v>0.09248554913294797</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01734104046242774</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04046242774566474</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1849710982658959</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005681818181818182</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1363636363636364</v>
+        <v>0.1465968586387434</v>
       </c>
       <c r="I16">
-        <v>0.07386363636363637</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="J16">
-        <v>0.4147727272727273</v>
+        <v>0.4083769633507853</v>
       </c>
       <c r="K16">
-        <v>0.1590909090909091</v>
+        <v>0.1465968586387434</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02840909090909091</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05113636363636364</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1306818181818182</v>
+        <v>0.1361256544502618</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02298850574712644</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.235632183908046</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="I17">
-        <v>0.1120689655172414</v>
+        <v>0.1147959183673469</v>
       </c>
       <c r="J17">
-        <v>0.4166666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K17">
-        <v>0.06609195402298851</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005747126436781609</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04310344827586207</v>
+        <v>0.04336734693877551</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09770114942528736</v>
+        <v>0.09183673469387756</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02285714285714286</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1771428571428571</v>
+        <v>0.1684782608695652</v>
       </c>
       <c r="I18">
-        <v>0.09714285714285714</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="J18">
-        <v>0.3542857142857143</v>
+        <v>0.358695652173913</v>
       </c>
       <c r="K18">
-        <v>0.1257142857142857</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005714285714285714</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="N18">
-        <v>0.005714285714285714</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="O18">
-        <v>0.06857142857142857</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1428571428571428</v>
+        <v>0.1413043478260869</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02008733624454149</v>
+        <v>0.01957585644371941</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2043668122270742</v>
+        <v>0.2030995106035889</v>
       </c>
       <c r="I19">
-        <v>0.09082969432314411</v>
+        <v>0.09053833605220228</v>
       </c>
       <c r="J19">
-        <v>0.3537117903930131</v>
+        <v>0.3588907014681892</v>
       </c>
       <c r="K19">
-        <v>0.1039301310043668</v>
+        <v>0.1019575856443719</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02183406113537118</v>
+        <v>0.02039151712887439</v>
       </c>
       <c r="N19">
-        <v>0.0008733624454148472</v>
+        <v>0.0008156606851549756</v>
       </c>
       <c r="O19">
-        <v>0.07423580786026202</v>
+        <v>0.07340946166394779</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1301310043668122</v>
+        <v>0.1313213703099511</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Iona_B.xlsx
+++ b/team_specific_matrix/Iona_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.16</v>
+        <v>0.1682539682539683</v>
       </c>
       <c r="C2">
-        <v>0.62</v>
+        <v>0.6063492063492063</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1066666666666667</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1033333333333333</v>
+        <v>0.1047619047619048</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0101010101010101</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="C3">
-        <v>0.02525252525252525</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04545454545454546</v>
+        <v>0.04433497536945813</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7424242424242424</v>
+        <v>0.7438423645320197</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1767676767676768</v>
+        <v>0.1773399014778325</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6470588235294118</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2941176470588235</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08333333333333333</v>
+        <v>0.08365019011406843</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007936507936507936</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09126984126984126</v>
+        <v>0.08745247148288973</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2063492063492063</v>
+        <v>0.2053231939163498</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01984126984126984</v>
+        <v>0.02281368821292776</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.123015873015873</v>
+        <v>0.1368821292775665</v>
       </c>
       <c r="R6">
-        <v>0.09523809523809523</v>
+        <v>0.09505703422053231</v>
       </c>
       <c r="S6">
-        <v>0.373015873015873</v>
+        <v>0.3612167300380228</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1216216216216216</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02027027027027027</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06081081081081081</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1013513513513514</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02027027027027027</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1621621621621622</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R7">
-        <v>0.1081081081081081</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S7">
-        <v>0.4054054054054054</v>
+        <v>0.4144736842105263</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1129807692307692</v>
+        <v>0.1138392857142857</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02403846153846154</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="E8">
-        <v>0.002403846153846154</v>
+        <v>0.002232142857142857</v>
       </c>
       <c r="F8">
-        <v>0.08173076923076923</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1153846153846154</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007211538461538462</v>
+        <v>0.006696428571428571</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1730769230769231</v>
+        <v>0.1830357142857143</v>
       </c>
       <c r="R8">
-        <v>0.06971153846153846</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S8">
-        <v>0.4134615384615384</v>
+        <v>0.4084821428571428</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.12</v>
+        <v>0.119815668202765</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.125</v>
+        <v>0.1152073732718894</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.095</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.19</v>
+        <v>0.1981566820276498</v>
       </c>
       <c r="R9">
-        <v>0.07000000000000001</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="S9">
-        <v>0.37</v>
+        <v>0.3594470046082949</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1153519932145886</v>
+        <v>0.1096214511041009</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01611535199321459</v>
+        <v>0.01577287066246057</v>
       </c>
       <c r="E10">
-        <v>0.0008481764206955047</v>
+        <v>0.0007886435331230284</v>
       </c>
       <c r="F10">
-        <v>0.07718405428329092</v>
+        <v>0.07728706624605679</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1128074639525021</v>
+        <v>0.1135646687697161</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01357082273112807</v>
+        <v>0.01419558359621451</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1959287531806616</v>
+        <v>0.194794952681388</v>
       </c>
       <c r="R10">
-        <v>0.08566581849024597</v>
+        <v>0.08675078864353312</v>
       </c>
       <c r="S10">
-        <v>0.3825275657336726</v>
+        <v>0.3872239747634069</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1403508771929824</v>
+        <v>0.1399317406143345</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08771929824561403</v>
+        <v>0.08873720136518772</v>
       </c>
       <c r="K11">
-        <v>0.2105263157894737</v>
+        <v>0.2116040955631399</v>
       </c>
       <c r="L11">
-        <v>0.5228070175438596</v>
+        <v>0.5221843003412969</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03859649122807018</v>
+        <v>0.03754266211604096</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5949367088607594</v>
+        <v>0.6049382716049383</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2721518987341772</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="K12">
-        <v>0.02531645569620253</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="L12">
-        <v>0.03164556962025317</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0759493670886076</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6060606060606061</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2727272727272727</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02116402116402116</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1164021164021164</v>
+        <v>0.1268292682926829</v>
       </c>
       <c r="I15">
-        <v>0.06349206349206349</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="J15">
-        <v>0.4656084656084656</v>
+        <v>0.4682926829268293</v>
       </c>
       <c r="K15">
-        <v>0.08994708994708994</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01587301587301587</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04232804232804233</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1851851851851852</v>
+        <v>0.1853658536585366</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005235602094240838</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1465968586387434</v>
+        <v>0.1522842639593909</v>
       </c>
       <c r="I16">
-        <v>0.07329842931937172</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="J16">
-        <v>0.4083769633507853</v>
+        <v>0.4060913705583756</v>
       </c>
       <c r="K16">
-        <v>0.1465968586387434</v>
+        <v>0.1421319796954315</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02617801047120419</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05759162303664921</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1361256544502618</v>
+        <v>0.1370558375634518</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02040816326530612</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2244897959183673</v>
+        <v>0.2230046948356808</v>
       </c>
       <c r="I17">
-        <v>0.1147959183673469</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="J17">
-        <v>0.4285714285714285</v>
+        <v>0.431924882629108</v>
       </c>
       <c r="K17">
-        <v>0.07142857142857142</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.00510204081632653</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04336734693877551</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09183673469387756</v>
+        <v>0.08450704225352113</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02173913043478261</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1684782608695652</v>
+        <v>0.1741293532338309</v>
       </c>
       <c r="I18">
-        <v>0.09782608695652174</v>
+        <v>0.09950248756218906</v>
       </c>
       <c r="J18">
-        <v>0.358695652173913</v>
+        <v>0.3631840796019901</v>
       </c>
       <c r="K18">
-        <v>0.1304347826086956</v>
+        <v>0.1243781094527363</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005434782608695652</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="N18">
-        <v>0.005434782608695652</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="O18">
-        <v>0.07065217391304347</v>
+        <v>0.06965174129353234</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1413043478260869</v>
+        <v>0.1343283582089552</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01957585644371941</v>
+        <v>0.01850424055512722</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2030995106035889</v>
+        <v>0.2035466461063994</v>
       </c>
       <c r="I19">
-        <v>0.09053833605220228</v>
+        <v>0.09252120277563608</v>
       </c>
       <c r="J19">
-        <v>0.3588907014681892</v>
+        <v>0.3646877409406322</v>
       </c>
       <c r="K19">
-        <v>0.1019575856443719</v>
+        <v>0.1002313030069391</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02039151712887439</v>
+        <v>0.01927525057825752</v>
       </c>
       <c r="N19">
-        <v>0.0008156606851549756</v>
+        <v>0.0007710100231303007</v>
       </c>
       <c r="O19">
-        <v>0.07340946166394779</v>
+        <v>0.07324595219737856</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1313213703099511</v>
+        <v>0.1272166538164996</v>
       </c>
     </row>
   </sheetData>
